--- a/ModalConfig.xlsx
+++ b/ModalConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRep\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF086CEA-BB48-4990-BFC8-8BBE7202CAB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A818701-F3B8-46EB-9A82-3146BB3D093D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4224" yWindow="2484" windowWidth="17280" windowHeight="9024" activeTab="2" xr2:uid="{2B771158-C5EF-47E5-B0CD-8BA481E90AC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="18" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="19" r:id="rId2"/>
-    <sheet name="Enabling" sheetId="20" r:id="rId3"/>
+    <sheet name="State-PF" sheetId="27" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="28" r:id="rId2"/>
+    <sheet name="Enabling" sheetId="29" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2594,7 +2594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8817F29F-EAB1-4887-A3BF-220E80F088AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DF8A74-E321-408C-AA72-45932C4E6C00}">
   <dimension ref="A1:G325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3053,7 +3053,7 @@
         <v>54</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -4391,7 +4391,7 @@
         <v>238</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.3">
@@ -8089,7 +8089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D7E11-C17E-4134-9505-C35C6A88E372}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA7D05D-6F88-44D9-86AE-0EEE2515CDC9}">
   <dimension ref="A1:L173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10103,7 +10103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4AE10C-0AAA-444F-A16C-BEE9C6763F81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735972A3-4540-41B8-9A0B-BA0DCA13B122}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
